--- a/kicad/Arducon.xlsx
+++ b/kicad/Arducon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>Arducon</t>
   </si>
@@ -163,7 +163,10 @@
     <t>GRM21BR61E106KA73L</t>
   </si>
   <si>
-    <t>C101 C102 C104 C105</t>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>C104</t>
   </si>
   <si>
     <t>490-5523-1-ND</t>
@@ -208,6 +211,9 @@
     <t>Murata Electronics</t>
   </si>
   <si>
+    <t>C101 C102 C105</t>
+  </si>
+  <si>
     <t>CG0603MLC-05LE</t>
   </si>
   <si>
@@ -259,7 +265,7 @@
     <t>MSS1P2L-M3/89A</t>
   </si>
   <si>
-    <t>D109 D108 D101</t>
+    <t>D109 D108</t>
   </si>
   <si>
     <t>MSS1P2L-M3/89AGICT-ND</t>
@@ -304,6 +310,9 @@
     <t>Vishay General Semiconductor</t>
   </si>
   <si>
+    <t>D101</t>
+  </si>
+  <si>
     <t>150080RS75000</t>
   </si>
   <si>
@@ -406,9 +415,6 @@
     <t>TH</t>
   </si>
   <si>
-    <t>DNI</t>
-  </si>
-  <si>
     <t>J102</t>
   </si>
   <si>
@@ -769,7 +775,7 @@
     <t>MMBT2222A-TP</t>
   </si>
   <si>
-    <t>Q101 Q103 Q104</t>
+    <t>Q104</t>
   </si>
   <si>
     <t>MMBT2222ATPMSCT-ND</t>
@@ -817,10 +823,13 @@
     <t>Micro Commercial Co</t>
   </si>
   <si>
+    <t>Q101 Q103</t>
+  </si>
+  <si>
     <t>RC0805FR-0710KL</t>
   </si>
   <si>
-    <t>R103 R104 R108 R111 R109</t>
+    <t>R103 R111</t>
   </si>
   <si>
     <t>311-10.0KCRCT-ND</t>
@@ -868,6 +877,9 @@
     <t>Yageo</t>
   </si>
   <si>
+    <t>R104 R108 R109</t>
+  </si>
+  <si>
     <t>RC0805FR-07162KL</t>
   </si>
   <si>
@@ -1477,7 +1489,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="15"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>https://www.digikey.com/products/en?keywords=LP2992AIM5-3.3/NOPBCT-ND</t>
@@ -1580,7 +1592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1592,20 +1604,10 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u val="single"/>
@@ -1613,14 +1615,8 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="15"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,14 +1635,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1658,28 +1648,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -1693,7 +1661,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -1702,7 +1670,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,13 +1679,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,163 +1724,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,77 +1755,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1982,13 +1812,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2005,10 +1832,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -2185,14 +2012,11 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2201,7 +2025,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2216,19 +2040,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2476,12 +2300,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2772,7 +2596,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3053,1882 +2877,2008 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A2:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43" style="1" customWidth="1"/>
-    <col min="6" max="7" width="39.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.8516" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="54.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="74.3516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="76.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.35156" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="L2" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="N2" s="7"/>
     </row>
-    <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" t="s" s="12">
+      <c r="D3" s="7"/>
+      <c r="E3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="15">
+      <c r="H3" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="I3" t="s" s="15">
+      <c r="I3" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="J3" t="s" s="15">
+      <c r="J3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="K3" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s" s="15">
+      <c r="K3" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="M3" t="s" s="15">
+      <c r="M3" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="N3" s="11"/>
     </row>
-    <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="C4" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" t="s" s="20">
+      <c r="D4" s="11"/>
+      <c r="E4" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F4" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="G4" t="s" s="21">
+      <c r="G4" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="H4" t="s" s="22">
+      <c r="H4" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="22">
+      <c r="I4" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="J4" t="s" s="22">
+      <c r="J4" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="K4" t="s" s="22">
+      <c r="K4" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="22">
+      <c r="L4" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="M4" t="s" s="22">
+      <c r="M4" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="N4" s="19"/>
     </row>
-    <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="16">
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="M14" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M18" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="M20" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="M21" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="J22" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="M22" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s" s="10">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="M23" t="s" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="J24" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="M24" t="s" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="J25" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M25" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="I26" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="J26" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="L26" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="M26" t="s" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="J27" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="L27" t="s" s="10">
+        <v>148</v>
+      </c>
+      <c r="M27" t="s" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="8">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="H28" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="J28" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s" s="10">
+        <v>148</v>
+      </c>
+      <c r="M28" t="s" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="H29" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="I29" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="K29" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="L29" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="M29" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="8">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="L30" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="M30" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="8">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" t="s" s="10">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="H31" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J31" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="L31" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="M31" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="8">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="H32" t="s" s="10">
+        <v>171</v>
+      </c>
+      <c r="I32" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J32" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="K32" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="L32" t="s" s="10">
+        <v>174</v>
+      </c>
+      <c r="M32" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="8">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" t="s" s="10">
+        <v>176</v>
+      </c>
+      <c r="F33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s" s="10">
+        <v>178</v>
+      </c>
+      <c r="I33" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J33" t="s" s="10">
+        <v>179</v>
+      </c>
+      <c r="K33" t="s" s="10">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="M33" t="s" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="8">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>183</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="H34" t="s" s="10">
+        <v>186</v>
+      </c>
+      <c r="I34" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J34" t="s" s="10">
+        <v>187</v>
+      </c>
+      <c r="K34" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="L34" t="s" s="10">
+        <v>189</v>
+      </c>
+      <c r="M34" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="8">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>190</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s" s="10">
+        <v>192</v>
+      </c>
+      <c r="H35" s="12">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J35" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="K35" t="s" s="10">
+        <v>194</v>
+      </c>
+      <c r="L35" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="M35" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="8">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s" s="10">
+        <v>198</v>
+      </c>
+      <c r="H36" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="I36" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J36" t="s" s="10">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s" s="10">
+        <v>201</v>
+      </c>
+      <c r="L36" t="s" s="10">
+        <v>202</v>
+      </c>
+      <c r="M36" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="8">
+        <v>31</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" t="s" s="10">
+        <v>204</v>
+      </c>
+      <c r="F37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="H37" s="12">
+        <v>470</v>
+      </c>
+      <c r="I37" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="J37" t="s" s="10">
+        <v>206</v>
+      </c>
+      <c r="K37" t="s" s="10">
+        <v>207</v>
+      </c>
+      <c r="L37" t="s" s="10">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s" s="10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="8">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>209</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" t="s" s="10">
+        <v>210</v>
+      </c>
+      <c r="F38" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s" s="10">
+        <v>211</v>
+      </c>
+      <c r="H38" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="I38" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="J38" t="s" s="10">
+        <v>213</v>
+      </c>
+      <c r="K38" t="s" s="10">
+        <v>214</v>
+      </c>
+      <c r="L38" t="s" s="10">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="8">
         <v>33</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" t="s" s="20">
+      <c r="B39" s="9">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="E39" t="s" s="10">
+        <v>216</v>
+      </c>
+      <c r="F39" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="G5" t="s" s="21">
+      <c r="G39" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="I39" t="s" s="10">
+        <v>218</v>
+      </c>
+      <c r="J39" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M39" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="8">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s" s="10">
+        <v>219</v>
+      </c>
+      <c r="F40" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="I40" t="s" s="10">
+        <v>221</v>
+      </c>
+      <c r="J40" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M40" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="8">
         <v>35</v>
       </c>
-      <c r="H5" t="s" s="22">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="10">
+        <v>222</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="F41" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s" s="10">
+        <v>224</v>
+      </c>
+      <c r="H41" t="s" s="10">
+        <v>225</v>
+      </c>
+      <c r="I41" t="s" s="10">
+        <v>226</v>
+      </c>
+      <c r="J41" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="K41" t="s" s="10">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="M41" t="s" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="8">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="22">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s" s="22">
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="10">
+        <v>231</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="F42" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H42" t="s" s="10">
+        <v>234</v>
+      </c>
+      <c r="I42" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="J42" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s" s="10">
+        <v>237</v>
+      </c>
+      <c r="L42" t="s" s="10">
+        <v>238</v>
+      </c>
+      <c r="M42" t="s" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="8">
         <v>37</v>
       </c>
-      <c r="K5" t="s" s="22">
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s" s="10">
+        <v>239</v>
+      </c>
+      <c r="F43" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s" s="10">
+        <v>240</v>
+      </c>
+      <c r="I43" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="J43" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="M43" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="8">
         <v>38</v>
       </c>
-      <c r="L5" t="s" s="22">
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>241</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" t="s" s="10">
+        <v>242</v>
+      </c>
+      <c r="F44" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="H44" t="s" s="10">
+        <v>241</v>
+      </c>
+      <c r="I44" t="s" s="10">
+        <v>244</v>
+      </c>
+      <c r="J44" t="s" s="10">
+        <v>245</v>
+      </c>
+      <c r="K44" t="s" s="10">
+        <v>246</v>
+      </c>
+      <c r="L44" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="M44" t="s" s="10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="8">
         <v>39</v>
       </c>
-      <c r="M5" t="s" s="22">
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="10">
+        <v>249</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" t="s" s="10">
+        <v>250</v>
+      </c>
+      <c r="F45" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s" s="10">
+        <v>251</v>
+      </c>
+      <c r="H45" t="s" s="10">
+        <v>249</v>
+      </c>
+      <c r="I45" t="s" s="10">
+        <v>252</v>
+      </c>
+      <c r="J45" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="K45" t="s" s="10">
+        <v>254</v>
+      </c>
+      <c r="L45" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="M45" t="s" s="10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="8">
         <v>40</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>257</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" t="s" s="10">
+        <v>258</v>
+      </c>
+      <c r="F46" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="H46" t="s" s="10">
+        <v>260</v>
+      </c>
+      <c r="I46" t="s" s="10">
+        <v>261</v>
+      </c>
+      <c r="J46" t="s" s="10">
+        <v>262</v>
+      </c>
+      <c r="K46" t="s" s="10">
+        <v>263</v>
+      </c>
+      <c r="L46" t="s" s="10">
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="10">
+        <v>256</v>
+      </c>
     </row>
-    <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="18">
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="8">
         <v>41</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" t="s" s="20">
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s" s="10">
+        <v>265</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" t="s" s="10">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s" s="10">
+        <v>267</v>
+      </c>
+      <c r="H47" t="s" s="10">
+        <v>268</v>
+      </c>
+      <c r="I47" t="s" s="10">
+        <v>269</v>
+      </c>
+      <c r="J47" t="s" s="10">
+        <v>270</v>
+      </c>
+      <c r="K47" t="s" s="10">
+        <v>271</v>
+      </c>
+      <c r="L47" t="s" s="10">
+        <v>272</v>
+      </c>
+      <c r="M47" t="s" s="10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="8">
         <v>42</v>
       </c>
-      <c r="F6" t="s" s="13">
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="10">
+        <v>274</v>
+      </c>
+      <c r="D48" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s" s="10">
+        <v>275</v>
+      </c>
+      <c r="F48" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="21">
+      <c r="G48" t="s" s="10">
+        <v>276</v>
+      </c>
+      <c r="H48" t="s" s="10">
+        <v>277</v>
+      </c>
+      <c r="I48" t="s" s="10">
+        <v>278</v>
+      </c>
+      <c r="J48" t="s" s="10">
+        <v>279</v>
+      </c>
+      <c r="K48" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s" s="10">
+        <v>280</v>
+      </c>
+      <c r="M48" t="s" s="10">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="8">
         <v>43</v>
       </c>
-      <c r="H6" t="s" s="22">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s" s="22">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s" s="22">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s" s="22">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s" s="22">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s" s="22">
-        <v>48</v>
-      </c>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s" s="18">
-        <v>49</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s" s="13">
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s" s="10">
+        <v>282</v>
+      </c>
+      <c r="F49" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="21">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s" s="22">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s" s="22">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s" s="22">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s" s="22">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s" s="22">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s" s="22">
-        <v>56</v>
-      </c>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="18">
-        <v>57</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" t="s" s="20">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s" s="21">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s" s="22">
-        <v>61</v>
-      </c>
-      <c r="J8" t="s" s="22">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s" s="22">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s" s="22">
-        <v>65</v>
-      </c>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="18">
-        <v>66</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" t="s" s="20">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s" s="22">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s" s="22">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s" s="22">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s" s="22">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s" s="22">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s" s="22">
-        <v>73</v>
-      </c>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" ht="20.7" customHeight="1">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s" s="20">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s" s="21">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s" s="22">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s" s="22">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s" s="22">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s" s="20">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s" s="22">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s" s="22">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s" s="22">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s" s="20">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s" s="22">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s" s="22">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s" s="22">
-        <v>85</v>
-      </c>
-      <c r="M12" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s" s="20">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s" s="22">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s" s="22">
+      <c r="G49" t="s" s="10">
         <v>91</v>
       </c>
-      <c r="J13" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s" s="20">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H14" t="s" s="22">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="22">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M14" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" ht="20.7" customHeight="1">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s" s="20">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s" s="22">
-        <v>96</v>
-      </c>
-      <c r="I15" t="s" s="22">
-        <v>97</v>
-      </c>
-      <c r="J15" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M15" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" ht="20.7" customHeight="1">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s" s="20">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s" s="22">
+      <c r="H49" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="I49" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="I16" t="s" s="22">
+      <c r="J49" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s" s="10">
         <v>91</v>
       </c>
-      <c r="J16" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M16" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s" s="20">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s" s="22">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s" s="22">
-        <v>102</v>
-      </c>
-      <c r="J17" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s" s="21">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s" s="22">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s" s="22">
-        <v>106</v>
-      </c>
-      <c r="J18" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s" s="22">
-        <v>107</v>
-      </c>
-      <c r="M18" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" ht="20.7" customHeight="1">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s" s="20">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s" s="21">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s" s="22">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s" s="22">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s" s="22">
-        <v>111</v>
-      </c>
-      <c r="M19" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" ht="20.7" customHeight="1">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s" s="22">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s" s="22">
-        <v>84</v>
-      </c>
-      <c r="J20" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="K20" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L20" t="s" s="22">
-        <v>85</v>
-      </c>
-      <c r="M20" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="18">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s" s="21">
-        <v>116</v>
-      </c>
-      <c r="H21" t="s" s="22">
-        <v>117</v>
-      </c>
-      <c r="I21" t="s" s="22">
-        <v>118</v>
-      </c>
-      <c r="J21" t="s" s="22">
-        <v>119</v>
-      </c>
-      <c r="K21" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s" s="22">
-        <v>120</v>
-      </c>
-      <c r="M21" t="s" s="22">
-        <v>121</v>
-      </c>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" ht="20.7" customHeight="1">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="18">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s" s="20">
-        <v>122</v>
-      </c>
-      <c r="F22" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s" s="21">
-        <v>123</v>
-      </c>
-      <c r="H22" t="s" s="22">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s" s="22">
-        <v>125</v>
-      </c>
-      <c r="J22" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s" s="22">
-        <v>126</v>
-      </c>
-      <c r="M22" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s" s="20">
-        <v>127</v>
-      </c>
-      <c r="F23" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s" s="22">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s" s="22">
-        <v>129</v>
-      </c>
-      <c r="J23" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M23" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="18">
-        <v>130</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" t="s" s="20">
-        <v>131</v>
-      </c>
-      <c r="F24" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s" s="21">
-        <v>132</v>
-      </c>
-      <c r="H24" t="s" s="22">
-        <v>133</v>
-      </c>
-      <c r="I24" t="s" s="22">
-        <v>134</v>
-      </c>
-      <c r="J24" t="s" s="22">
-        <v>135</v>
-      </c>
-      <c r="K24" t="s" s="22">
-        <v>136</v>
-      </c>
-      <c r="L24" t="s" s="22">
-        <v>137</v>
-      </c>
-      <c r="M24" t="s" s="22">
-        <v>138</v>
-      </c>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" ht="20.7" customHeight="1">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s" s="18">
-        <v>139</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" t="s" s="20">
-        <v>140</v>
-      </c>
-      <c r="F25" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s" s="21">
-        <v>141</v>
-      </c>
-      <c r="H25" t="s" s="22">
-        <v>142</v>
-      </c>
-      <c r="I25" t="s" s="22">
-        <v>143</v>
-      </c>
-      <c r="J25" t="s" s="22">
-        <v>144</v>
-      </c>
-      <c r="K25" t="s" s="22">
-        <v>145</v>
-      </c>
-      <c r="L25" t="s" s="22">
-        <v>146</v>
-      </c>
-      <c r="M25" t="s" s="22">
-        <v>147</v>
-      </c>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" ht="20.7" customHeight="1">
-      <c r="A26" s="16">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s" s="18">
-        <v>148</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" t="s" s="20">
-        <v>149</v>
-      </c>
-      <c r="F26" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s" s="21">
-        <v>150</v>
-      </c>
-      <c r="H26" t="s" s="22">
-        <v>151</v>
-      </c>
-      <c r="I26" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J26" t="s" s="22">
-        <v>153</v>
-      </c>
-      <c r="K26" t="s" s="22">
-        <v>154</v>
-      </c>
-      <c r="L26" t="s" s="22">
-        <v>155</v>
-      </c>
-      <c r="M26" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" ht="20.7" customHeight="1">
-      <c r="A27" s="16">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s" s="18">
-        <v>157</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" t="s" s="20">
-        <v>158</v>
-      </c>
-      <c r="F27" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s" s="21">
-        <v>159</v>
-      </c>
-      <c r="H27" t="s" s="22">
-        <v>160</v>
-      </c>
-      <c r="I27" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J27" t="s" s="22">
-        <v>161</v>
-      </c>
-      <c r="K27" t="s" s="22">
-        <v>162</v>
-      </c>
-      <c r="L27" t="s" s="22">
-        <v>163</v>
-      </c>
-      <c r="M27" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" ht="20.7" customHeight="1">
-      <c r="A28" s="16">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s" s="18">
-        <v>164</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" t="s" s="20">
-        <v>165</v>
-      </c>
-      <c r="F28" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s" s="21">
-        <v>166</v>
-      </c>
-      <c r="H28" t="s" s="22">
-        <v>167</v>
-      </c>
-      <c r="I28" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J28" t="s" s="22">
-        <v>168</v>
-      </c>
-      <c r="K28" t="s" s="22">
-        <v>169</v>
-      </c>
-      <c r="L28" t="s" s="22">
-        <v>170</v>
-      </c>
-      <c r="M28" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" ht="20.7" customHeight="1">
-      <c r="A29" s="16">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="18">
-        <v>171</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" t="s" s="20">
-        <v>172</v>
-      </c>
-      <c r="F29" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s" s="21">
-        <v>173</v>
-      </c>
-      <c r="H29" t="s" s="22">
-        <v>174</v>
-      </c>
-      <c r="I29" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J29" t="s" s="22">
-        <v>175</v>
-      </c>
-      <c r="K29" t="s" s="22">
-        <v>176</v>
-      </c>
-      <c r="L29" t="s" s="22">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s" s="22">
-        <v>178</v>
-      </c>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" ht="20.7" customHeight="1">
-      <c r="A30" s="16">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s" s="18">
-        <v>179</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" t="s" s="20">
-        <v>180</v>
-      </c>
-      <c r="F30" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s" s="21">
-        <v>181</v>
-      </c>
-      <c r="H30" t="s" s="22">
-        <v>182</v>
-      </c>
-      <c r="I30" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J30" t="s" s="22">
-        <v>183</v>
-      </c>
-      <c r="K30" t="s" s="22">
-        <v>184</v>
-      </c>
-      <c r="L30" t="s" s="22">
-        <v>185</v>
-      </c>
-      <c r="M30" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" ht="20.7" customHeight="1">
-      <c r="A31" s="16">
-        <v>29</v>
-      </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="18">
-        <v>186</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" t="s" s="20">
-        <v>187</v>
-      </c>
-      <c r="F31" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s" s="21">
-        <v>188</v>
-      </c>
-      <c r="H31" s="23">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J31" t="s" s="22">
-        <v>189</v>
-      </c>
-      <c r="K31" t="s" s="22">
-        <v>190</v>
-      </c>
-      <c r="L31" t="s" s="22">
-        <v>191</v>
-      </c>
-      <c r="M31" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" ht="20.7" customHeight="1">
-      <c r="A32" s="16">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s" s="18">
-        <v>192</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" t="s" s="20">
-        <v>193</v>
-      </c>
-      <c r="F32" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s" s="21">
-        <v>194</v>
-      </c>
-      <c r="H32" t="s" s="22">
-        <v>195</v>
-      </c>
-      <c r="I32" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J32" t="s" s="22">
-        <v>196</v>
-      </c>
-      <c r="K32" t="s" s="22">
-        <v>197</v>
-      </c>
-      <c r="L32" t="s" s="22">
-        <v>198</v>
-      </c>
-      <c r="M32" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" s="16">
-        <v>31</v>
-      </c>
-      <c r="B33" s="17">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>199</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" t="s" s="20">
-        <v>200</v>
-      </c>
-      <c r="F33" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s" s="21">
-        <v>201</v>
-      </c>
-      <c r="H33" s="23">
-        <v>470</v>
-      </c>
-      <c r="I33" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J33" t="s" s="22">
-        <v>202</v>
-      </c>
-      <c r="K33" t="s" s="22">
-        <v>203</v>
-      </c>
-      <c r="L33" t="s" s="22">
-        <v>204</v>
-      </c>
-      <c r="M33" t="s" s="22">
-        <v>156</v>
-      </c>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" s="16">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s" s="18">
-        <v>205</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" t="s" s="20">
-        <v>206</v>
-      </c>
-      <c r="F34" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s" s="21">
-        <v>207</v>
-      </c>
-      <c r="H34" t="s" s="22">
-        <v>151</v>
-      </c>
-      <c r="I34" t="s" s="22">
-        <v>208</v>
-      </c>
-      <c r="J34" t="s" s="22">
-        <v>209</v>
-      </c>
-      <c r="K34" t="s" s="22">
-        <v>210</v>
-      </c>
-      <c r="L34" t="s" s="22">
-        <v>211</v>
-      </c>
-      <c r="M34" t="s" s="22">
-        <v>48</v>
-      </c>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" ht="20.7" customHeight="1">
-      <c r="A35" s="16">
-        <v>33</v>
-      </c>
-      <c r="B35" s="17">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E35" t="s" s="20">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H35" t="s" s="22">
-        <v>213</v>
-      </c>
-      <c r="I35" t="s" s="22">
-        <v>214</v>
-      </c>
-      <c r="J35" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K35" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M35" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N35" s="19"/>
-    </row>
-    <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" s="16">
-        <v>34</v>
-      </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s" s="20">
-        <v>215</v>
-      </c>
-      <c r="F36" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H36" t="s" s="22">
-        <v>216</v>
-      </c>
-      <c r="I36" t="s" s="22">
-        <v>217</v>
-      </c>
-      <c r="J36" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K36" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L36" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M36" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N36" s="19"/>
-    </row>
-    <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" s="16">
-        <v>35</v>
-      </c>
-      <c r="B37" s="17">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s" s="18">
-        <v>218</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" t="s" s="20">
-        <v>219</v>
-      </c>
-      <c r="F37" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s" s="21">
-        <v>220</v>
-      </c>
-      <c r="H37" t="s" s="22">
-        <v>221</v>
-      </c>
-      <c r="I37" t="s" s="22">
-        <v>222</v>
-      </c>
-      <c r="J37" t="s" s="22">
-        <v>223</v>
-      </c>
-      <c r="K37" t="s" s="22">
-        <v>224</v>
-      </c>
-      <c r="L37" t="s" s="22">
-        <v>225</v>
-      </c>
-      <c r="M37" t="s" s="22">
-        <v>226</v>
-      </c>
-      <c r="N37" s="19"/>
-    </row>
-    <row r="38" ht="20.7" customHeight="1">
-      <c r="A38" s="16">
-        <v>36</v>
-      </c>
-      <c r="B38" s="17">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s" s="18">
-        <v>227</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" t="s" s="20">
-        <v>228</v>
-      </c>
-      <c r="F38" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s" s="21">
-        <v>229</v>
-      </c>
-      <c r="H38" t="s" s="22">
-        <v>230</v>
-      </c>
-      <c r="I38" t="s" s="22">
-        <v>231</v>
-      </c>
-      <c r="J38" t="s" s="22">
-        <v>232</v>
-      </c>
-      <c r="K38" t="s" s="22">
-        <v>233</v>
-      </c>
-      <c r="L38" t="s" s="22">
-        <v>234</v>
-      </c>
-      <c r="M38" t="s" s="22">
-        <v>226</v>
-      </c>
-      <c r="N38" s="19"/>
-    </row>
-    <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" s="16">
-        <v>37</v>
-      </c>
-      <c r="B39" s="17">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E39" t="s" s="20">
-        <v>235</v>
-      </c>
-      <c r="F39" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H39" t="s" s="22">
-        <v>236</v>
-      </c>
-      <c r="I39" t="s" s="22">
-        <v>102</v>
-      </c>
-      <c r="J39" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L39" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M39" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" ht="20.7" customHeight="1">
-      <c r="A40" s="16">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s" s="18">
-        <v>237</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" t="s" s="20">
-        <v>238</v>
-      </c>
-      <c r="F40" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s" s="21">
-        <v>239</v>
-      </c>
-      <c r="H40" t="s" s="22">
-        <v>237</v>
-      </c>
-      <c r="I40" t="s" s="22">
-        <v>240</v>
-      </c>
-      <c r="J40" t="s" s="22">
-        <v>241</v>
-      </c>
-      <c r="K40" t="s" s="22">
-        <v>242</v>
-      </c>
-      <c r="L40" t="s" s="22">
-        <v>243</v>
-      </c>
-      <c r="M40" t="s" s="22">
-        <v>244</v>
-      </c>
-      <c r="N40" s="19"/>
-    </row>
-    <row r="41" ht="20.7" customHeight="1">
-      <c r="A41" s="16">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s" s="18">
-        <v>245</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" t="s" s="20">
-        <v>246</v>
-      </c>
-      <c r="F41" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s" s="21">
-        <v>247</v>
-      </c>
-      <c r="H41" t="s" s="22">
-        <v>245</v>
-      </c>
-      <c r="I41" t="s" s="22">
-        <v>248</v>
-      </c>
-      <c r="J41" t="s" s="22">
-        <v>249</v>
-      </c>
-      <c r="K41" t="s" s="22">
-        <v>250</v>
-      </c>
-      <c r="L41" t="s" s="22">
-        <v>251</v>
-      </c>
-      <c r="M41" t="s" s="22">
-        <v>252</v>
-      </c>
-      <c r="N41" s="19"/>
-    </row>
-    <row r="42" ht="20.7" customHeight="1">
-      <c r="A42" s="16">
-        <v>40</v>
-      </c>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s" s="18">
-        <v>253</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" t="s" s="20">
-        <v>254</v>
-      </c>
-      <c r="F42" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s" s="21">
-        <v>255</v>
-      </c>
-      <c r="H42" t="s" s="22">
-        <v>256</v>
-      </c>
-      <c r="I42" t="s" s="22">
-        <v>257</v>
-      </c>
-      <c r="J42" t="s" s="22">
-        <v>258</v>
-      </c>
-      <c r="K42" t="s" s="22">
-        <v>259</v>
-      </c>
-      <c r="L42" t="s" s="22">
-        <v>260</v>
-      </c>
-      <c r="M42" t="s" s="22">
-        <v>252</v>
-      </c>
-      <c r="N42" s="19"/>
-    </row>
-    <row r="43" ht="20.7" customHeight="1">
-      <c r="A43" s="16">
-        <v>41</v>
-      </c>
-      <c r="B43" s="17">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s" s="18">
-        <v>261</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" t="s" s="20">
-        <v>262</v>
-      </c>
-      <c r="F43" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s" s="21">
-        <v>263</v>
-      </c>
-      <c r="H43" t="s" s="22">
-        <v>264</v>
-      </c>
-      <c r="I43" t="s" s="22">
-        <v>265</v>
-      </c>
-      <c r="J43" t="s" s="22">
-        <v>266</v>
-      </c>
-      <c r="K43" t="s" s="22">
-        <v>267</v>
-      </c>
-      <c r="L43" t="s" s="22">
-        <v>268</v>
-      </c>
-      <c r="M43" t="s" s="22">
-        <v>269</v>
-      </c>
-      <c r="N43" s="19"/>
-    </row>
-    <row r="44" ht="20.7" customHeight="1">
-      <c r="A44" s="16">
-        <v>42</v>
-      </c>
-      <c r="B44" s="17">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s" s="18">
-        <v>270</v>
-      </c>
-      <c r="D44" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E44" t="s" s="20">
-        <v>271</v>
-      </c>
-      <c r="F44" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s" s="21">
-        <v>272</v>
-      </c>
-      <c r="H44" t="s" s="22">
-        <v>273</v>
-      </c>
-      <c r="I44" t="s" s="22">
-        <v>274</v>
-      </c>
-      <c r="J44" t="s" s="22">
-        <v>275</v>
-      </c>
-      <c r="K44" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L44" t="s" s="22">
-        <v>276</v>
-      </c>
-      <c r="M44" t="s" s="22">
-        <v>277</v>
-      </c>
-      <c r="N44" s="19"/>
-    </row>
-    <row r="45" ht="20.7" customHeight="1">
-      <c r="A45" s="16">
-        <v>43</v>
-      </c>
-      <c r="B45" s="17">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="22">
-        <v>75</v>
-      </c>
-      <c r="E45" t="s" s="20">
-        <v>278</v>
-      </c>
-      <c r="F45" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="H45" t="s" s="22">
-        <v>279</v>
-      </c>
-      <c r="I45" t="s" s="22">
-        <v>97</v>
-      </c>
-      <c r="J45" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="K45" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="L45" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="M45" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="N45" s="19"/>
+      <c r="M49" t="s" s="10">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=BC501SM-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L4" r:id="rId2" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=478-1395-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L5" r:id="rId3" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=490-5523-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L6" r:id="rId4" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=CG0603MLC-05LECT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L7" r:id="rId5" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=MSS1P2L-M3/89AGICT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L8" r:id="rId6" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=732-4984-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L9" r:id="rId7" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=240-2377-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L10" r:id="rId8" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=609-1525-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L11" r:id="rId9" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L12" r:id="rId10" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L18" r:id="rId11" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=929550-01-06-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L19" r:id="rId12" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=609-5908-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L20" r:id="rId13" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L21" r:id="rId14" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=1568-1055-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L22" r:id="rId15" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=609-3487-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L24" r:id="rId16" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=LMN200B02DICT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L25" r:id="rId17" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=MMBT2222ATPMSCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L26" r:id="rId18" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-10.0KCRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L27" r:id="rId19" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-162KCRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L28" r:id="rId20" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-100KCRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L29" r:id="rId21" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=RMCF0805FT1M00CT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L30" r:id="rId22" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-2.20KCRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L31" r:id="rId23" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-10.0CRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L32" r:id="rId24" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-210KCRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L33" r:id="rId25" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=311-470CRCT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L34" r:id="rId26" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=TC33X-103ECT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L37" r:id="rId27" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=CKN9088CT-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L38" r:id="rId28" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=401-2016-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L40" r:id="rId29" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=800-3576-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L41" r:id="rId30" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=296-14529-1-ND&quot;&gt;Link&lt;/a&gt;"/>
-    <hyperlink ref="L42" r:id="rId31" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=LP2992AIM5-3.3/NOPBCT-ND"/>
-    <hyperlink ref="L43" r:id="rId32" location="" tooltip="" display="&lt;a href=&quot;https://www.digikey.com/products/en?keywords=DS3231SN#T&amp;RCT-ND&quot;&gt;Link&lt;/a&gt;"/>
+    <hyperlink ref="L3" r:id="rId1" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=BC501SM-ND"/>
+    <hyperlink ref="L4" r:id="rId2" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=478-1395-1-ND"/>
+    <hyperlink ref="L5" r:id="rId3" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=490-5523-1-ND"/>
+    <hyperlink ref="L6" r:id="rId4" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=490-5523-1-ND"/>
+    <hyperlink ref="L7" r:id="rId5" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=CG0603MLC-05LECT-ND"/>
+    <hyperlink ref="L8" r:id="rId6" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=MSS1P2L-M3/89AGICT-ND"/>
+    <hyperlink ref="L9" r:id="rId7" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=MSS1P2L-M3/89AGICT-ND"/>
+    <hyperlink ref="L10" r:id="rId8" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=732-4984-1-ND"/>
+    <hyperlink ref="L11" r:id="rId9" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=240-2377-1-ND"/>
+    <hyperlink ref="L12" r:id="rId10" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=609-1525-ND"/>
+    <hyperlink ref="L13" r:id="rId11" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND"/>
+    <hyperlink ref="L14" r:id="rId12" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND"/>
+    <hyperlink ref="L20" r:id="rId13" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=929550-01-06-ND"/>
+    <hyperlink ref="L21" r:id="rId14" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=609-5908-ND"/>
+    <hyperlink ref="L22" r:id="rId15" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=CON-SMA-EDGE-S-ND"/>
+    <hyperlink ref="L23" r:id="rId16" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=1568-1055-ND"/>
+    <hyperlink ref="L24" r:id="rId17" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=609-3487-1-ND"/>
+    <hyperlink ref="L26" r:id="rId18" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=LMN200B02DICT-ND"/>
+    <hyperlink ref="L27" r:id="rId19" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=MMBT2222ATPMSCT-ND"/>
+    <hyperlink ref="L28" r:id="rId20" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=MMBT2222ATPMSCT-ND"/>
+    <hyperlink ref="L29" r:id="rId21" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-10.0KCRCT-ND"/>
+    <hyperlink ref="L30" r:id="rId22" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-10.0KCRCT-ND"/>
+    <hyperlink ref="L31" r:id="rId23" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-162KCRCT-ND"/>
+    <hyperlink ref="L32" r:id="rId24" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-100KCRCT-ND"/>
+    <hyperlink ref="L33" r:id="rId25" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=RMCF0805FT1M00CT-ND"/>
+    <hyperlink ref="L34" r:id="rId26" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-2.20KCRCT-ND"/>
+    <hyperlink ref="L35" r:id="rId27" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-10.0CRCT-ND"/>
+    <hyperlink ref="L36" r:id="rId28" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-210KCRCT-ND"/>
+    <hyperlink ref="L37" r:id="rId29" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=311-470CRCT-ND"/>
+    <hyperlink ref="L38" r:id="rId30" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=TC33X-103ECT-ND"/>
+    <hyperlink ref="L41" r:id="rId31" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=CKN9088CT-ND"/>
+    <hyperlink ref="L42" r:id="rId32" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=401-2016-1-ND"/>
+    <hyperlink ref="L44" r:id="rId33" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=800-3576-ND"/>
+    <hyperlink ref="L45" r:id="rId34" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=296-14529-1-ND"/>
+    <hyperlink ref="L46" r:id="rId35" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=LP2992AIM5-3.3/NOPBCT-ND"/>
+    <hyperlink ref="L47" r:id="rId36" location="" tooltip="" display="https://www.digikey.com/products/en?keywords=DS3231SN#T&amp;RCT-ND"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
